--- a/Document/02. Design/02. DetailDesign/Task 2/Detail_Design_View_CV_candidate.xlsx
+++ b/Document/02. Design/02. DetailDesign/Task 2/Detail_Design_View_CV_candidate.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToanHH\Candidate-Management\Document\02. Design\02. DetailDesign\Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AFCDF6-4FE4-4287-A4CA-56C715EDFA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E30D3-2D1B-4B8A-9CB7-66A4147B5292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1D93384A-52E6-4AA9-A8EA-CF1F492B127E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{1D93384A-52E6-4AA9-A8EA-CF1F492B127E}"/>
   </bookViews>
   <sheets>
     <sheet name="Screen View CV Ứng Viên" sheetId="1" r:id="rId1"/>
     <sheet name="Detail Design" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Mã Số</t>
   </si>
@@ -198,17 +195,14 @@
     <t>Output từ API</t>
   </si>
   <si>
-    <t>candidate.pathCV</t>
-  </si>
-  <si>
-    <t>Lấy path CV ứng viên để hiển thị CV Ứng Viên</t>
+    <t>Hiển Thị Khởi Tạo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +246,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -283,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -319,13 +321,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -350,9 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -361,6 +369,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -436,14 +456,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>8165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>486513</xdr:colOff>
+      <xdr:colOff>225256</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>29230</xdr:rowOff>
+      <xdr:rowOff>127203</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -466,8 +486,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4476750"/>
-          <a:ext cx="5287113" cy="4696480"/>
+          <a:off x="0" y="4449536"/>
+          <a:ext cx="5352427" cy="4560409"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -480,14 +500,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>140154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>438796</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>124165</xdr:rowOff>
+      <xdr:colOff>177539</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>102394</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -510,8 +530,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11782425"/>
-          <a:ext cx="4629796" cy="2438740"/>
+          <a:off x="0" y="12909097"/>
+          <a:ext cx="4695110" cy="2367983"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -524,14 +544,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419743</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>47929</xdr:rowOff>
+      <xdr:colOff>158486</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>15272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -554,8 +574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9486900"/>
-          <a:ext cx="4610743" cy="2181529"/>
+          <a:off x="0" y="10112829"/>
+          <a:ext cx="4676057" cy="2116215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -866,28 +886,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BD063C-376B-4E6E-AD44-339BB7858E99}">
   <dimension ref="A35:O39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -945,7 +965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -959,7 +979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -976,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1002,28 +1022,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ACA02C-7855-4970-86DA-F3D3984C06FC}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" customWidth="1"/>
-    <col min="11" max="12" width="22.140625" customWidth="1"/>
-    <col min="13" max="13" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="12" width="22.109375" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1045,89 +1065,87 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1144,7 +1162,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="10"/>
@@ -1155,13 +1173,13 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
@@ -1178,7 +1196,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="10"/>
@@ -1189,13 +1207,13 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C20" s="11"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>34</v>
       </c>
@@ -1207,7 +1225,7 @@
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>1</v>
       </c>
@@ -1219,12 +1237,19 @@
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I28" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I29" s="8" t="s">
         <v>48</v>
       </c>
@@ -1241,38 +1266,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I31" s="2">
-        <v>2</v>
-      </c>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I34" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I35" s="8" t="s">
         <v>48</v>
       </c>
@@ -1289,7 +1302,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I36" s="2">
         <v>1</v>
       </c>
@@ -1298,7 +1311,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I37" s="2">
         <v>2</v>
       </c>
@@ -1307,7 +1320,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I38" s="2">
         <v>3</v>
       </c>
@@ -1316,8 +1329,26 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
+    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A68:C68"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="F1:H1"/>
